--- a/Datos/Diccionario_Variables_02_10_2023.xlsx
+++ b/Datos/Diccionario_Variables_02_10_2023.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\Documents\Deoleo_preliminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\PycharmProjects\Deoleo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3CE207-19A5-4B7B-B333-DB3B2C2FF0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225ACD05-AB6E-4616-A584-273D4BC304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="147">
   <si>
     <t>Nombre</t>
   </si>
@@ -429,6 +430,57 @@
   </si>
   <si>
     <t>yield_Spain_Broad_field_beans</t>
+  </si>
+  <si>
+    <t>VIRGEN_EXTRA_EUR_kg</t>
+  </si>
+  <si>
+    <t>Precio del aceite de oliva extra virgen en España - medido en €/KG ponderado por volumenes</t>
+  </si>
+  <si>
+    <t>PRODUCTION HARVEST</t>
+  </si>
+  <si>
+    <t>Producción Total de la cosecha pasada de aceite de oliva medida en miles de Toneladas Métricas, campo calculado agregando la producción de cada mes</t>
+  </si>
+  <si>
+    <t>Datos Facilitados por Deoleo en el excel BASE DATOS v act 28_09</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-01</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-02</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-03</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-04</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-05</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-06</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-07</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-08</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-09</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-10</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-11</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-06-12</t>
   </si>
 </sst>
 </file>
@@ -436,8 +488,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -533,7 +585,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -872,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2D189-5346-4572-8755-90A5C952BA18}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1940,4 +1992,1095 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B529610-FE5F-473D-A599-C60242586FD8}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos/Diccionario_Variables_02_10_2023.xlsx
+++ b/Datos/Diccionario_Variables_02_10_2023.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\PycharmProjects\Deoleo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225ACD05-AB6E-4616-A584-273D4BC304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAC24B-D47E-4E98-A485-903E1B3AB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
+    <workbookView minimized="1" xWindow="31640" yWindow="2840" windowWidth="21600" windowHeight="11410" activeTab="2" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="156">
   <si>
     <t>Nombre</t>
   </si>
@@ -481,6 +482,33 @@
   </si>
   <si>
     <t>2005-10-01 hasta 2023-06-12</t>
+  </si>
+  <si>
+    <t>Campo Calculado - demanda interna de aceite de oliva en España variable calculada con la suma de los consumos internos + los imports, variable medida en miles de Toneladas Métricas</t>
+  </si>
+  <si>
+    <t>Campo Calculado -  Demanda total de la produción Española, variable calculada, suma de consumos interno y export medida en miles de Toneladas Métricas</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION HARVEST </t>
+  </si>
+  <si>
+    <t>PRODUCTION HARVEST_OLD</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERNAL DEMAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL DEMAND </t>
   </si>
 </sst>
 </file>
@@ -491,7 +519,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +564,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -587,7 +621,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -606,6 +640,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{588B83C7-5A91-4C5B-89C3-AD2A05451340}"/>
@@ -925,7 +961,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1100,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1084,7 +1120,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1996,13 +2032,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B529610-FE5F-473D-A599-C60242586FD8}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="I1:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
@@ -2010,10 +2046,13 @@
     <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="29.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2032,8 +2071,14 @@
       <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>130</v>
       </c>
@@ -2052,8 +2097,14 @@
       <c r="F2" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="57.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +2164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -2132,8 +2183,14 @@
       <c r="F6" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="I6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>132</v>
       </c>
@@ -2150,8 +2207,14 @@
         <v>140</v>
       </c>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -2171,7 +2234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="57.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -2191,7 +2254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2210,8 +2273,14 @@
       <c r="F10" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="I10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2230,613 +2299,621 @@
       <c r="F11" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="I11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="I12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="46" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="46" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="F41" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>72</v>
@@ -2851,12 +2928,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>72</v>
@@ -2871,12 +2948,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>72</v>
@@ -2885,18 +2962,18 @@
         <v>112</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>72</v>
@@ -2911,66 +2988,78 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
       <c r="B49" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
@@ -2981,10 +3070,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
+    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
@@ -2995,10 +3084,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
@@ -3009,10 +3098,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
@@ -3023,10 +3112,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>109</v>
+    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -3037,10 +3126,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
-        <v>114</v>
+    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -3051,10 +3140,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -3065,10 +3154,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -3076,6 +3165,34 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3083,4 +3200,79 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5917ED3A-AB5B-4F31-9FD4-62650ACD6DA9}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos/Diccionario_Variables_02_10_2023.xlsx
+++ b/Datos/Diccionario_Variables_02_10_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\PycharmProjects\Deoleo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAC24B-D47E-4E98-A485-903E1B3AB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0760A-E8F7-43E9-9E80-3DE991A9ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="31640" yWindow="2840" windowWidth="21600" windowHeight="11410" activeTab="2" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
+    <workbookView xWindow="-9890" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="158">
   <si>
     <t>Nombre</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t xml:space="preserve">INTERNAL DEMAND </t>
+  </si>
+  <si>
+    <t>Campo Calculado Producción Total de la cosecha pasada de aceite de oliva medida en miles de Toneladas Métricas, campo calculado agregando la producción de cada mes</t>
+  </si>
+  <si>
+    <t>PRODUCTION_HARVEST</t>
   </si>
 </sst>
 </file>
@@ -516,8 +522,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -619,7 +625,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -662,7 +668,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -958,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2D189-5346-4572-8755-90A5C952BA18}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.1796875" style="1" customWidth="1"/>
@@ -1077,30 +1083,30 @@
     </row>
     <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1117,10 +1123,10 @@
     </row>
     <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1137,10 +1143,10 @@
     </row>
     <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -1157,10 +1163,10 @@
     </row>
     <row r="10" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1177,10 +1183,10 @@
     </row>
     <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
@@ -1197,10 +1203,10 @@
     </row>
     <row r="12" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -1215,21 +1221,21 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>121</v>
@@ -1237,10 +1243,10 @@
     </row>
     <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
@@ -1257,10 +1263,10 @@
     </row>
     <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
@@ -1277,10 +1283,10 @@
     </row>
     <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
@@ -1297,10 +1303,10 @@
     </row>
     <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
@@ -1317,10 +1323,10 @@
     </row>
     <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>25</v>
@@ -1337,10 +1343,10 @@
     </row>
     <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
@@ -1357,10 +1363,10 @@
     </row>
     <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
@@ -1377,10 +1383,10 @@
     </row>
     <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -1397,10 +1403,10 @@
     </row>
     <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -1417,10 +1423,10 @@
     </row>
     <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
@@ -1437,10 +1443,10 @@
     </row>
     <row r="24" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
@@ -1457,10 +1463,10 @@
     </row>
     <row r="25" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -1477,10 +1483,10 @@
     </row>
     <row r="26" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>25</v>
@@ -1497,10 +1503,10 @@
     </row>
     <row r="27" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -1517,10 +1523,10 @@
     </row>
     <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>25</v>
@@ -1537,10 +1543,10 @@
     </row>
     <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>25</v>
@@ -1557,10 +1563,10 @@
     </row>
     <row r="30" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>25</v>
@@ -1577,10 +1583,10 @@
     </row>
     <row r="31" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>25</v>
@@ -1597,10 +1603,10 @@
     </row>
     <row r="32" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>25</v>
@@ -1617,79 +1623,79 @@
     </row>
     <row r="33" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>121</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>121</v>
@@ -1717,50 +1723,50 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="F39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>72</v>
@@ -1777,10 +1783,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>72</v>
@@ -1797,10 +1803,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>72</v>
@@ -1817,10 +1823,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>72</v>
@@ -1829,7 +1835,7 @@
         <v>112</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>121</v>
@@ -1837,10 +1843,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>72</v>
@@ -1849,36 +1855,42 @@
         <v>112</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
         <v>123</v>
       </c>
@@ -1886,11 +1898,11 @@
     <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
@@ -1898,9 +1910,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
@@ -1912,9 +1924,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
@@ -1928,7 +1940,7 @@
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
@@ -1942,7 +1954,7 @@
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
@@ -1956,7 +1968,7 @@
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
@@ -1967,10 +1979,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>109</v>
+    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
@@ -1984,7 +1996,7 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -1998,7 +2010,7 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -2012,7 +2024,7 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -2020,6 +2032,20 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2035,10 +2061,10 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="I1:J12"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
@@ -2628,7 +2654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="46" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2714,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="46" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -3206,11 +3232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5917ED3A-AB5B-4F31-9FD4-62650ACD6DA9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="15.90625" customWidth="1"/>

--- a/Datos/Diccionario_Variables_02_10_2023.xlsx
+++ b/Datos/Diccionario_Variables_02_10_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\PycharmProjects\Deoleo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0760A-E8F7-43E9-9E80-3DE991A9ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A22E6-1680-4488-9EA3-A4E71434A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9890" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="160">
   <si>
     <t>Nombre</t>
   </si>
@@ -328,12 +328,6 @@
     <t>2015-12-01 hasta 2023-06-01</t>
   </si>
   <si>
-    <t>Demanda total de la produción Española, variable calculada, suma de consumos interno y export medida en miles de Toneladas Métricas</t>
-  </si>
-  <si>
-    <t>Demanda interna de aceite de oliva en España variable calculada con la suma de los consumos internos + los imports, variable medida en miles de Toneladas Métricas</t>
-  </si>
-  <si>
     <t>Precio spot del energia electrica medido en eur/MWh</t>
   </si>
   <si>
@@ -439,48 +433,12 @@
     <t>Precio del aceite de oliva extra virgen en España - medido en €/KG ponderado por volumenes</t>
   </si>
   <si>
-    <t>PRODUCTION HARVEST</t>
-  </si>
-  <si>
-    <t>Producción Total de la cosecha pasada de aceite de oliva medida en miles de Toneladas Métricas, campo calculado agregando la producción de cada mes</t>
-  </si>
-  <si>
     <t>Datos Facilitados por Deoleo en el excel BASE DATOS v act 28_09</t>
   </si>
   <si>
-    <t>2005-10-01 hasta 2023-06-01</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-02</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-03</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-04</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-05</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-06</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-07</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-08</t>
-  </si>
-  <si>
-    <t>2005-10-01 hasta 2023-06-09</t>
-  </si>
-  <si>
     <t>2005-10-01 hasta 2023-06-10</t>
   </si>
   <si>
-    <t>2005-10-01 hasta 2023-06-11</t>
-  </si>
-  <si>
     <t>2005-10-01 hasta 2023-06-12</t>
   </si>
   <si>
@@ -515,6 +473,54 @@
   </si>
   <si>
     <t>PRODUCTION_HARVEST</t>
+  </si>
+  <si>
+    <t>PRODUCTION_HARVEST_LAST_YEAR</t>
+  </si>
+  <si>
+    <t>PRODUCTION_HARVEST_2_YEARS</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-09-01</t>
+  </si>
+  <si>
+    <t>TOTAL_CONS</t>
+  </si>
+  <si>
+    <t>INTERNAL_DEMAND_LAG_13</t>
+  </si>
+  <si>
+    <t>Producción Total de la cosecha del año pasado de aceite de oliva medida en miles de Toneladas Métricas, campo calculado agregando la producción de cada mes calculado como retraso de 24 meses de la variable precedente</t>
+  </si>
+  <si>
+    <t>Datos Facilitados por Deoleo en el excel BASE DATOS v act 28_10</t>
+  </si>
+  <si>
+    <t>Datos Facilitados por Deoleo en el excel BASE DATOS v act 28_11</t>
+  </si>
+  <si>
+    <t>Campo calculado: Demanda total de la produción Española,  suma de consumos interno y export medida en miles de Toneladas Métricas</t>
+  </si>
+  <si>
+    <t>Campo calculado: Producción Total de la ultima cosecha de aceite de oliva medida en miles de Toneladas Métricas, suma de la producción de cada mes desde Octubre hasta la fin de la cosecha, confrontado a partir de Marzo</t>
+  </si>
+  <si>
+    <t>Campo calculado: Demanda interna de aceite de oliva en España. suma de los consumos internos y de los imports, variable medida en miles de Toneladas Métricas</t>
+  </si>
+  <si>
+    <t>PRODUCTION_HARVEST_LAG_8</t>
+  </si>
+  <si>
+    <t>Campo Calculado: Demanda interna del ao pasado ,El campo [INTERNAL_DEMAND] con un retraso de 13 meses</t>
+  </si>
+  <si>
+    <t>EXTERNAL_DEMAND_LAG_12</t>
+  </si>
+  <si>
+    <t>Campo Calculado -  Demanda total de la produción Española del año pasado.  suma de consumos interno y export medida en miles de Toneladas Métricas</t>
+  </si>
+  <si>
+    <t>Campo calculado: retraso de 8 meses del campo [PRODUCTION_HARVEST]</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +583,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -627,7 +639,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{588B83C7-5A91-4C5B-89C3-AD2A05451340}"/>
@@ -966,11 +981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2D189-5346-4572-8755-90A5C952BA18}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="32.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.1796875" style="1" customWidth="1"/>
@@ -981,7 +996,7 @@
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1018,10 +1033,10 @@
         <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1038,10 +1053,10 @@
         <v>88</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1058,10 +1073,10 @@
         <v>88</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1078,35 +1093,35 @@
         <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.5">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.5">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1118,15 +1133,15 @@
         <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.5">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1138,15 +1153,15 @@
         <v>88</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.5">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -1158,10 +1173,10 @@
         <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1178,10 +1193,10 @@
         <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1198,10 +1213,10 @@
         <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34.5">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1218,10 +1233,10 @@
         <v>88</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.5">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1238,12 +1253,12 @@
         <v>88</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1258,12 +1273,12 @@
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1278,12 +1293,12 @@
         <v>89</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -1298,12 +1313,12 @@
         <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23">
       <c r="A17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1318,12 +1333,12 @@
         <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -1338,12 +1353,12 @@
         <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -1358,10 +1373,10 @@
         <v>89</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1378,10 +1393,10 @@
         <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1398,10 +1413,10 @@
         <v>89</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1418,10 +1433,10 @@
         <v>89</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1438,10 +1453,10 @@
         <v>89</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="23">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1458,10 +1473,10 @@
         <v>89</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -1478,10 +1493,10 @@
         <v>89</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="23">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1498,10 +1513,10 @@
         <v>89</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1518,10 +1533,10 @@
         <v>89</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="23">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
@@ -1538,10 +1553,10 @@
         <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -1558,10 +1573,10 @@
         <v>89</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="23">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1578,10 +1593,10 @@
         <v>89</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -1598,10 +1613,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -1618,10 +1633,10 @@
         <v>89</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1638,10 +1653,10 @@
         <v>89</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -1658,10 +1673,10 @@
         <v>89</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -1678,10 +1693,10 @@
         <v>88</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23">
       <c r="A36" s="3" t="s">
         <v>65</v>
       </c>
@@ -1698,10 +1713,10 @@
         <v>90</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -1718,15 +1733,15 @@
         <v>91</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>72</v>
@@ -1738,10 +1753,10 @@
         <v>88</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1758,295 +1773,303 @@
         <v>92</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="23">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.5">
+      <c r="A46" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="B46" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.5">
+      <c r="A47" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="B47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.5">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.5">
       <c r="A49" s="8"/>
       <c r="B49" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.5">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.5">
       <c r="A51" s="9"/>
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.5">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.5">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2058,15 +2081,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B529610-FE5F-473D-A599-C60242586FD8}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
@@ -2078,7 +2101,7 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2098,1128 +2121,1156 @@
         <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J2" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="34.5">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="57.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.5">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="23" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="69">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J6" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F7" s="5"/>
       <c r="I7" s="10" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="23">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="57.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="69">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="46">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="69">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="46">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="I12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="69">
       <c r="A13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="57.5">
+      <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="46" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14">
+      <c r="F16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14">
+      <c r="A17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="34.5">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="F21" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="34.5">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46">
+      <c r="A23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46">
+      <c r="A24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="46">
+      <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="46">
+      <c r="A26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="57.5">
+      <c r="A27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="46">
+      <c r="A28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="46">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="46">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="46">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="46">
+      <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="46">
+      <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="46">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="46">
+      <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.5">
+      <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="46">
+      <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="46">
+      <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="57.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="57.5">
+      <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="46">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="46">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="46">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="46" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="46">
+      <c r="A43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34.5">
+      <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="F44" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34.5">
+      <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="F45" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34.5">
+      <c r="A46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="F46" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="F47" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34.5">
+      <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="F48" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34.5">
+      <c r="A49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23">
+      <c r="A50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="F51" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="F52" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
+      <c r="F54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.5">
+      <c r="A55" s="6"/>
       <c r="B55" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.5">
+      <c r="A56" s="9"/>
+      <c r="B56" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.5">
+      <c r="A57" s="9"/>
+      <c r="B57" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.5">
       <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>115</v>
+      <c r="B58" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.5">
+      <c r="A59" s="9"/>
+      <c r="B59" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.5">
+      <c r="A60" s="9"/>
+      <c r="B60" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.5">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.5">
+      <c r="A62" s="9"/>
+      <c r="B62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3236,61 +3287,61 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5">
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="17.5" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="17.5" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="21.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="24" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>

--- a/Datos/Diccionario_Variables_02_10_2023.xlsx
+++ b/Datos/Diccionario_Variables_02_10_2023.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanino\PycharmProjects\Deoleo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A22E6-1680-4488-9EA3-A4E71434A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18759257-34BB-4A20-B2CB-B3F58676189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
+    <workbookView xWindow="-110" yWindow="-16310" windowWidth="29020" windowHeight="15820" activeTab="2" xr2:uid="{6D45425A-3C1D-4E54-AE93-985BA4EF7DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="actualizado" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="188">
   <si>
     <t>Nombre</t>
   </si>
@@ -521,6 +522,90 @@
   </si>
   <si>
     <t>Campo calculado: retraso de 8 meses del campo [PRODUCTION_HARVEST]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existencias iniciales de aceite de Oliva en España </t>
+  </si>
+  <si>
+    <t>Importaciones de Aceite de Oliva en España</t>
+  </si>
+  <si>
+    <t>Consumo interno de Aceite de Oliva en España</t>
+  </si>
+  <si>
+    <t>Campo calculado: Producción annual aceite de oliva en España. suma de la producción de cada mes desde Octubre hasta la fin de la cosecha, contrastado a partir de Marzo del año seguiente</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-08-12</t>
+  </si>
+  <si>
+    <t>2005-10-01 hasta 2023-08-01</t>
+  </si>
+  <si>
+    <t>Producción mensual de aceite de oliva</t>
+  </si>
+  <si>
+    <t>TOTAL_CONS_LAG_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumos interno + export </t>
+  </si>
+  <si>
+    <t>Retrardo de 24 meses del campo [PRODUCTION_HARVEST]</t>
+  </si>
+  <si>
+    <t>Retrardo de 12 meses del campo [PRODUCTION_HARVEST]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retardo de 12 meses de: Consumos interno + export </t>
+  </si>
+  <si>
+    <t>Exportaciones de Aceite de Oliva en España</t>
+  </si>
+  <si>
+    <t>Retardo de 12 meses de las exportaciones: [EXPORTS]</t>
+  </si>
+  <si>
+    <t>Existencias iniciales de aceite de Oliva en España</t>
+  </si>
+  <si>
+    <t>EXIS_INIC</t>
+  </si>
+  <si>
+    <t>EXIS_INIC_LAG_15</t>
+  </si>
+  <si>
+    <t>EXPORTS_LAG_12                              </t>
+  </si>
+  <si>
+    <t>Retardo de 12 meses de las Existencias iniciales: [EXIS_INIC]</t>
+  </si>
+  <si>
+    <t>Estimación España (Junta Andalucia)</t>
+  </si>
+  <si>
+    <t>Previsiones de la cosecha del año seguiente della Junta de Andalucia</t>
+  </si>
+  <si>
+    <t>2010-07-01 hasta 2023-09-01</t>
+  </si>
+  <si>
+    <t>PRODUCTION_HARVEST_REAL_EST</t>
+  </si>
+  <si>
+    <t>Variables que combina los datos de Producción annual [PRODUCTION_HARVEST] desde marzo hasta julio, y los de la previsiones [Estimación España (Junta Andalucia)] por los otros meses</t>
+  </si>
+  <si>
+    <t>HARVEST_FORECAST_JUNTA_ANDALUCIA</t>
+  </si>
+  <si>
+    <t>Prevision de procucción de aceite por el año seguiente</t>
+  </si>
+  <si>
+    <t>IMPORTS_LAG_19                             </t>
+  </si>
+  <si>
+    <t>Retardo de 12 meses de las importaciones: [IMPORTS]</t>
   </si>
 </sst>
 </file>
@@ -610,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -633,13 +718,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -659,8 +757,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,7 +2003,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -1915,7 +2021,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2083,14 +2189,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B529610-FE5F-473D-A599-C60242586FD8}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="32.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.1796875" style="1" customWidth="1"/>
@@ -2127,7 +2233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.5">
+    <row r="2" spans="1:10" ht="23">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -2153,7 +2259,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34.5">
+    <row r="3" spans="1:10" ht="23">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2278,7 @@
       <c r="F3" s="5"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="34.5">
+    <row r="4" spans="1:10" ht="23">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +2342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69">
+    <row r="7" spans="1:10" ht="46">
       <c r="A7" s="3" t="s">
         <v>143</v>
       </c>
@@ -2297,7 +2403,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="46">
+    <row r="10" spans="1:10" ht="23">
       <c r="A10" s="3" t="s">
         <v>148</v>
       </c>
@@ -2336,7 +2442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46">
+    <row r="12" spans="1:10" ht="34.5">
       <c r="A12" s="3" t="s">
         <v>147</v>
       </c>
@@ -2356,7 +2462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="69">
+    <row r="13" spans="1:10" ht="46">
       <c r="A13" s="3" t="s">
         <v>145</v>
       </c>
@@ -2375,7 +2481,7 @@
       <c r="F13" s="5"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="57.5">
+    <row r="15" spans="1:10" ht="34.5">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2407,7 +2513,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B17" s="4"/>
@@ -2417,7 +2523,7 @@
       <c r="F17" s="5"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="34.5">
+    <row r="18" spans="1:10" ht="23">
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2445,7 +2551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="34.5">
+    <row r="22" spans="1:10" ht="23">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +2571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46">
+    <row r="23" spans="1:10" ht="34.5">
       <c r="A23" s="3" t="s">
         <v>125</v>
       </c>
@@ -2485,7 +2591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46">
+    <row r="24" spans="1:10" ht="34.5">
       <c r="A24" s="3" t="s">
         <v>126</v>
       </c>
@@ -2505,7 +2611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46">
+    <row r="25" spans="1:10" ht="34.5">
       <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
@@ -2525,7 +2631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="46">
+    <row r="26" spans="1:10" ht="34.5">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
@@ -2545,7 +2651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="57.5">
+    <row r="27" spans="1:10" ht="34.5">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -2565,7 +2671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46">
+    <row r="28" spans="1:10" ht="34.5">
       <c r="A28" s="3" t="s">
         <v>124</v>
       </c>
@@ -2585,7 +2691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46">
+    <row r="29" spans="1:10" ht="34.5">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -2605,7 +2711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="46">
+    <row r="30" spans="1:10" ht="34.5">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="46">
+    <row r="31" spans="1:10" ht="34.5">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2645,7 +2751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46">
+    <row r="32" spans="1:10" ht="34.5">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="46">
+    <row r="33" spans="1:6" ht="34.5">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2685,7 +2791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="46">
+    <row r="34" spans="1:6" ht="34.5">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2705,7 +2811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="46">
+    <row r="35" spans="1:6" ht="34.5">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="57.5">
+    <row r="36" spans="1:6" ht="34.5">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2745,7 +2851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="46">
+    <row r="37" spans="1:6" ht="34.5">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -2765,7 +2871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="46">
+    <row r="38" spans="1:6" ht="34.5">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -2785,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.5">
+    <row r="39" spans="1:6" ht="34.5">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -2805,7 +2911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="46">
+    <row r="40" spans="1:6" ht="34.5">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -2825,7 +2931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="46">
+    <row r="41" spans="1:6" ht="34.5">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -2845,7 +2951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="46">
+    <row r="42" spans="1:6" ht="34.5">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -2865,7 +2971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="46">
+    <row r="43" spans="1:6" ht="34.5">
       <c r="A43" s="3" t="s">
         <v>60</v>
       </c>
@@ -2885,7 +2991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="34.5">
+    <row r="44" spans="1:6" ht="23">
       <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
@@ -2905,7 +3011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="34.5">
+    <row r="45" spans="1:6" ht="23">
       <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
@@ -2925,7 +3031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="34.5">
+    <row r="46" spans="1:6" ht="23">
       <c r="A46" s="3" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +3071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34.5">
+    <row r="48" spans="1:6" ht="23">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -2985,7 +3091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="34.5">
+    <row r="49" spans="1:6" ht="23">
       <c r="A49" s="3" t="s">
         <v>81</v>
       </c>
@@ -3005,7 +3111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="23">
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
@@ -3025,7 +3131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="23">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>79</v>
       </c>
@@ -3281,75 +3387,1399 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5917ED3A-AB5B-4F31-9FD4-62650ACD6DA9}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="111.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="29.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9" ht="13">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" ht="23">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="5">
+      <c r="I2" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:9" ht="14">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="42.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14">
+      <c r="A8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="14">
+      <c r="A9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="14">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="14">
+      <c r="A13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="14">
+      <c r="A14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="5">
+      <c r="I16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="14">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="22" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="22" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="23">
+      <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="34.5">
+      <c r="A28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="34.5">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="34.5">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14">
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="34" spans="1:9" ht="14">
+      <c r="A34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="23">
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="5">
+      <c r="I35" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
+    <row r="38" spans="1:9">
+      <c r="E38" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="23">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23">
+      <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="23">
+      <c r="A41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="23">
+      <c r="A42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="23">
+      <c r="A43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="23">
+      <c r="A44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="23">
+      <c r="A45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="23">
+      <c r="A46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="23">
+      <c r="A47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="23">
+      <c r="A48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23">
+      <c r="A49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23">
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23">
+      <c r="A51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="23">
+      <c r="A53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="23">
+      <c r="A54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23">
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="23">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="23">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="23">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="23">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="23">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23">
+      <c r="A62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="23">
+      <c r="A66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.5">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.5">
+      <c r="A73" s="9"/>
+      <c r="B73" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.5">
+      <c r="A74" s="9"/>
+      <c r="B74" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.5">
+      <c r="A75" s="8"/>
+      <c r="B75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.5">
+      <c r="A76" s="9"/>
+      <c r="B76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.5">
+      <c r="A77" s="9"/>
+      <c r="B77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.5">
+      <c r="A78" s="9"/>
+      <c r="B78" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.5">
+      <c r="A79" s="9"/>
+      <c r="B79" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8EED91-63FF-4F27-A6F6-BDBC5200DCC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>